--- a/design/Map.xlsx
+++ b/design/Map.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9386885-23D9-49E2-A1D1-094A287BD779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0C82BB-4D7E-4B83-87EF-F360CE2B68C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="1" r:id="rId1"/>
+    <sheet name="Map" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +101,54 @@
   </si>
   <si>
     <t>Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Map/Dungeon.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Map/Field.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Map/test.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Map/test2.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Map/Town.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -568,4 +617,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A73612-86EA-46B7-B8CC-54EFBAE78C2E}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/Map.xlsx
+++ b/design/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0C82BB-4D7E-4B83-87EF-F360CE2B68C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB274A-A46B-44E3-BA3F-035F92A54A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,18 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,23 +120,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Map/Dungeon.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Map/Field.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resources/Map/test.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Map/test2.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Map/Town.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A73612-86EA-46B7-B8CC-54EFBAE78C2E}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,7 +609,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -645,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -653,7 +625,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -661,39 +633,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/design/Map.xlsx
+++ b/design/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB274A-A46B-44E3-BA3F-035F92A54A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A85E64-F7DD-4C43-AEDB-C3D4CB4DDF99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="1" r:id="rId1"/>

--- a/design/Map.xlsx
+++ b/design/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A85E64-F7DD-4C43-AEDB-C3D4CB4DDF99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C0F2F4-E28E-43DE-B01C-F8E1BD0BB20C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>Resources/Map/test.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A73612-86EA-46B7-B8CC-54EFBAE78C2E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -636,6 +640,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
